--- a/files/DPA_driven_by_Mathematical_function.xlsx
+++ b/files/DPA_driven_by_Mathematical_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E31C50CD-D9DC-4FCD-AE61-763661604AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748664CD-54E3-4F38-AD01-119B1D0E5E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{76DD3773-2329-45D0-B0C2-09D3F343360B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -46,27 +46,18 @@
     <t>Mathematical Function</t>
   </si>
   <si>
-    <t>Defence</t>
-  </si>
-  <si>
     <t>DPA-M-PGD</t>
   </si>
   <si>
     <t>PGD[29][35][36]</t>
   </si>
   <si>
-    <t>Certified Robust[32]</t>
-  </si>
-  <si>
     <t>DPA-M-Auto-PGD</t>
   </si>
   <si>
     <t>Auto-PGD[15][14]</t>
   </si>
   <si>
-    <t>WSNNS[20]</t>
-  </si>
-  <si>
     <t>DPA-M-LL-PGD</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>PGD Iterative[45]</t>
   </si>
   <si>
-    <t>Vector Defence[28]</t>
-  </si>
-  <si>
     <t>DPA-M-PGD-Single Shot</t>
   </si>
   <si>
@@ -94,45 +82,30 @@
     <t>MT-Linf/MT-L2[25]</t>
   </si>
   <si>
-    <t>Adversarial Training[8]</t>
-  </si>
-  <si>
     <t>DPA-M-L-BFGS</t>
   </si>
   <si>
     <t>BFGS[21]</t>
   </si>
   <si>
-    <t>APE-GAN[44]</t>
-  </si>
-  <si>
     <t>DPA-M-FGSM</t>
   </si>
   <si>
     <t>FGSM[2]</t>
   </si>
   <si>
-    <t>FGSM Counter</t>
-  </si>
-  <si>
     <t>DPA-M-LL-FGSM</t>
   </si>
   <si>
     <t>LL-FGSM(Step-LL)[47]</t>
   </si>
   <si>
-    <t>Prakash et al.[40]</t>
-  </si>
-  <si>
     <t>DPA-M-ADA-FGSM</t>
   </si>
   <si>
     <t>ADA-FGSM[45]</t>
   </si>
   <si>
-    <t>Carrara et al.[7]</t>
-  </si>
-  <si>
     <t>DPA-M-IFGSM(MI-Linf/MI-L2)</t>
   </si>
   <si>
@@ -151,45 +124,30 @@
     <t>MI-FGSM(Momentum Iterative)[42]</t>
   </si>
   <si>
-    <t>Mustafa et al.[39]</t>
-  </si>
-  <si>
     <t>DPA-M-TGSM</t>
   </si>
   <si>
     <t>TGSM[41]</t>
   </si>
   <si>
-    <t>Feature Distillation*[34]</t>
-  </si>
-  <si>
     <t>DPA-M-IFGSM</t>
   </si>
   <si>
     <t>IFGSM</t>
   </si>
   <si>
-    <t>SAP[17]</t>
-  </si>
-  <si>
     <t>DPA-M-ZOO</t>
   </si>
   <si>
     <t>ZOO[11]</t>
   </si>
   <si>
-    <t>Hybrid Random Forest[18]</t>
-  </si>
-  <si>
     <t>DPA-M-cADV</t>
   </si>
   <si>
     <t>cADV Colorisation attack[4]</t>
   </si>
   <si>
-    <t>JPEG defence[16]</t>
-  </si>
-  <si>
     <t>DPA-M-tAdv</t>
   </si>
   <si>
@@ -208,9 +166,6 @@
     <t>BIM(Iterative FGSM)[29]</t>
   </si>
   <si>
-    <t>Progressive Defence [48]</t>
-  </si>
-  <si>
     <t>DPA-M-BIM-A</t>
   </si>
   <si>
@@ -238,18 +193,12 @@
     <t>Momentum BIM[39]</t>
   </si>
   <si>
-    <t>Mustafa[39]</t>
-  </si>
-  <si>
     <t>DPA-M-Shadow Attack</t>
   </si>
   <si>
     <t>Semantic spoofed certificates[22]</t>
   </si>
   <si>
-    <t>Mustafa [39]</t>
-  </si>
-  <si>
     <t>DPA-M-JSMA</t>
   </si>
   <si>
@@ -262,9 +211,6 @@
     <t>Metamorphic Relation Based [9]</t>
   </si>
   <si>
-    <t>AT [30]</t>
-  </si>
-  <si>
     <t>DPA-M-MGA</t>
   </si>
   <si>
@@ -277,9 +223,6 @@
     <t>Gaussian Noise[12]</t>
   </si>
   <si>
-    <t>Certified Robustness [32]</t>
-  </si>
-  <si>
     <t>DPA-M-QL Attack</t>
   </si>
   <si>
@@ -298,18 +241,12 @@
     <t>One Pixel[46]</t>
   </si>
   <si>
-    <t>Pixel Defend [43]</t>
-  </si>
-  <si>
     <t>DPA-M-Momentum Iterative</t>
   </si>
   <si>
     <t>Momentum Iterative[19]</t>
   </si>
   <si>
-    <t>Super resolution [39]</t>
-  </si>
-  <si>
     <t>DPA-M-JigSaw Attack</t>
   </si>
   <si>
@@ -340,9 +277,6 @@
     <t>SimBA[23]</t>
   </si>
   <si>
-    <t>Randomisation[14]</t>
-  </si>
-  <si>
     <t>DPA-M-SimBA-DCT</t>
   </si>
   <si>
@@ -371,9 +305,6 @@
   </si>
   <si>
     <t>C&amp;W [6]</t>
-  </si>
-  <si>
-    <t>Stochastic Elements[5]</t>
   </si>
   <si>
     <t>DPA-M-IFS</t>
@@ -817,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E96AB97-415B-4E8D-B08A-C108D3E69D2A}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,10 +759,9 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -841,666 +771,522 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
